--- a/data/trans_orig/LAWTONB_2R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_2R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>265958</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>248873</v>
+        <v>248164</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>282805</v>
+        <v>282281</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7126630729154296</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6668807999464674</v>
+        <v>0.6649825501320679</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7578055353089287</v>
+        <v>0.7564028196212627</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>380</v>
@@ -765,19 +765,19 @@
         <v>380076</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>358804</v>
+        <v>355243</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>403174</v>
+        <v>401957</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6466643172531111</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6104710419601915</v>
+        <v>0.6044124632905927</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6859624248684667</v>
+        <v>0.6838930921605825</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>663</v>
@@ -786,19 +786,19 @@
         <v>646034</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>612883</v>
+        <v>617355</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>673194</v>
+        <v>674059</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6722955203790754</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6377965044878077</v>
+        <v>0.6424502835659553</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7005589560365303</v>
+        <v>0.7014594217894304</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>54877</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42261</v>
+        <v>43164</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67743</v>
+        <v>68611</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1470494435088071</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1132435251437566</v>
+        <v>0.1156638330878407</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1815234128573699</v>
+        <v>0.1838493967138319</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>88</v>
@@ -836,19 +836,19 @@
         <v>92930</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>75701</v>
+        <v>74653</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>109916</v>
+        <v>111126</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1581115774222548</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.128797923025397</v>
+        <v>0.1270157687034683</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1870118103912403</v>
+        <v>0.1890706204299758</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>147</v>
@@ -857,19 +857,19 @@
         <v>147807</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>125179</v>
+        <v>126416</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>171912</v>
+        <v>171734</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1538154994356803</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1302679475082523</v>
+        <v>0.1315550876487091</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1789003839347064</v>
+        <v>0.1787151761670855</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>18490</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11861</v>
+        <v>11822</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29086</v>
+        <v>27458</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04954723039302913</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0317816127695498</v>
+        <v>0.03167734361197096</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0779385494839315</v>
+        <v>0.07357629810627472</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>54</v>
@@ -907,19 +907,19 @@
         <v>58461</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>45292</v>
+        <v>44790</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>74572</v>
+        <v>74986</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09946591880674453</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0770596014047733</v>
+        <v>0.07620610405810313</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1268770524289426</v>
+        <v>0.1275808771279258</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>74</v>
@@ -928,19 +928,19 @@
         <v>76951</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>61587</v>
+        <v>59313</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>94220</v>
+        <v>94081</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08007955265978146</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06409081382499641</v>
+        <v>0.06172392284820225</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09805042689586949</v>
+        <v>0.09790586621943348</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>18368</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11734</v>
+        <v>11667</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28768</v>
+        <v>27973</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04921988864388238</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03144130393480787</v>
+        <v>0.03126263433385421</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07708584577699153</v>
+        <v>0.07495602886021488</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -978,19 +978,19 @@
         <v>23292</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15219</v>
+        <v>14855</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34646</v>
+        <v>34259</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03962941356278862</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02589325016334285</v>
+        <v>0.02527411778060084</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05894775546096302</v>
+        <v>0.05828878065060285</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -999,19 +999,19 @@
         <v>41660</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30094</v>
+        <v>30075</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56683</v>
+        <v>56227</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04335395976689773</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03131768751497702</v>
+        <v>0.03129755394928316</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0589870095310838</v>
+        <v>0.05851282912255493</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>15495</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8877</v>
+        <v>9082</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22953</v>
+        <v>24116</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04152036453885177</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02378627692489403</v>
+        <v>0.02433655880845629</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06150532388655308</v>
+        <v>0.06462021005672705</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>30</v>
@@ -1049,19 +1049,19 @@
         <v>32990</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21924</v>
+        <v>22611</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>44573</v>
+        <v>47076</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05612877295510089</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03730139782654215</v>
+        <v>0.03847040007766048</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07583663176417337</v>
+        <v>0.0800959068830549</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>47</v>
@@ -1070,19 +1070,19 @@
         <v>48485</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>37292</v>
+        <v>36608</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>65402</v>
+        <v>63670</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05045546775856511</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03880740430312345</v>
+        <v>0.03809652992769653</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06806086217964345</v>
+        <v>0.06625830783364564</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>73895</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65784</v>
+        <v>66351</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79575</v>
+        <v>79463</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8389258510197094</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7468375409675286</v>
+        <v>0.7532785741480351</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.903412186591569</v>
+        <v>0.9021409060137824</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -1195,19 +1195,19 @@
         <v>48713</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40571</v>
+        <v>40411</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54486</v>
+        <v>54777</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7830175641077459</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6521426740782877</v>
+        <v>0.6495752084680095</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8758110907523546</v>
+        <v>0.8804824421704028</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>122</v>
@@ -1216,19 +1216,19 @@
         <v>122608</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>111809</v>
+        <v>112339</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>131413</v>
+        <v>131084</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8157835985246712</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7439327846569992</v>
+        <v>0.747458561041647</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8743645923320835</v>
+        <v>0.8721780701869224</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>4503</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1710</v>
+        <v>1691</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10250</v>
+        <v>9381</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05111669553534813</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01941209959908755</v>
+        <v>0.01919528507998532</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1163645447551207</v>
+        <v>0.1064987402174088</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1266,19 +1266,19 @@
         <v>5695</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1912</v>
+        <v>1923</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13501</v>
+        <v>11922</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09154631417882922</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03072859185463189</v>
+        <v>0.03090374690453562</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2170197740268555</v>
+        <v>0.1916306665440122</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -1287,19 +1287,19 @@
         <v>10198</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5370</v>
+        <v>4917</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17750</v>
+        <v>17767</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06785182541687799</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03573025823717534</v>
+        <v>0.03271239539047465</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1180979290304751</v>
+        <v>0.1182160255925571</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>6019</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2475</v>
+        <v>2549</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12537</v>
+        <v>12443</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06832890529405408</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02809706163505774</v>
+        <v>0.0289412617542997</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1423284867664477</v>
+        <v>0.1412605540707332</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8692</v>
+        <v>8220</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03844485853090213</v>
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1397153958752705</v>
+        <v>0.1321303231188281</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -1358,19 +1358,19 @@
         <v>8410</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3940</v>
+        <v>3842</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16296</v>
+        <v>16311</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05595892950038681</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02621390614338703</v>
+        <v>0.02556159084928577</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1084274625105933</v>
+        <v>0.1085259910764505</v>
       </c>
     </row>
     <row r="13">
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6190</v>
+        <v>6072</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02170764008000162</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07027808152404925</v>
+        <v>0.06893456012827703</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7838</v>
+        <v>6646</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03589304056753876</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1259934388493057</v>
+        <v>0.1068352252040543</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1429,19 +1429,19 @@
         <v>4145</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10806</v>
+        <v>9634</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02757943723133906</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007404773878618096</v>
+        <v>0.007307267416455327</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07189961618764801</v>
+        <v>0.06409735829668436</v>
       </c>
     </row>
     <row r="14">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5529</v>
+        <v>6118</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01992090807088672</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06277261468093022</v>
+        <v>0.06945189081723202</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1479,19 +1479,19 @@
         <v>3179</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8346</v>
+        <v>8469</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05109822261498401</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01471252117844875</v>
+        <v>0.01455186414069348</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1341578971694768</v>
+        <v>0.1361268949708854</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1500,19 +1500,19 @@
         <v>4934</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1745</v>
+        <v>1829</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10809</v>
+        <v>11589</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03282620932672498</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01161067082656191</v>
+        <v>0.01216849016593583</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07191887381592119</v>
+        <v>0.07710648606205235</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>30404</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22944</v>
+        <v>22622</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36221</v>
+        <v>35703</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7380753622232079</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5569681023416477</v>
+        <v>0.5491693461377164</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8792741620071544</v>
+        <v>0.8667099191161715</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -1625,19 +1625,19 @@
         <v>15308</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9960</v>
+        <v>10191</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20220</v>
+        <v>20044</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5694898208858523</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3705310889428753</v>
+        <v>0.3791114474457962</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7522119268942734</v>
+        <v>0.745670673251291</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>43</v>
@@ -1646,19 +1646,19 @@
         <v>45713</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36742</v>
+        <v>36722</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53878</v>
+        <v>53930</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6715060564408547</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5397239454901019</v>
+        <v>0.5394412008199515</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7914522459313159</v>
+        <v>0.7922111103526719</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>8176</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3100</v>
+        <v>3360</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16093</v>
+        <v>15272</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1984663459942631</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07526144022804511</v>
+        <v>0.08157408439566682</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3906612229984218</v>
+        <v>0.3707261740997993</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1696,19 +1696,19 @@
         <v>8274</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4029</v>
+        <v>4060</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13336</v>
+        <v>13492</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3078142299682154</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1498875030949509</v>
+        <v>0.1510535243921507</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4961256784406344</v>
+        <v>0.5019186798094515</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -1717,19 +1717,19 @@
         <v>16450</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9672</v>
+        <v>9358</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24857</v>
+        <v>25413</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2416445015298491</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1420778201194711</v>
+        <v>0.1374634257448862</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3651349502887595</v>
+        <v>0.3733020589358936</v>
       </c>
     </row>
     <row r="18">
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8886</v>
+        <v>8413</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06345829178252897</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2157125062799629</v>
+        <v>0.2042387363299184</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1767,19 +1767,19 @@
         <v>3298</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8578</v>
+        <v>7911</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1226959491459323</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03259384734101865</v>
+        <v>0.03247575962485568</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3191017330800304</v>
+        <v>0.2942801055691313</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -1788,7 +1788,7 @@
         <v>5912</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2069</v>
+        <v>2058</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>12959</v>
@@ -1797,10 +1797,10 @@
         <v>0.08684944202929616</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03038691507941839</v>
+        <v>0.03023558283919359</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.190358695179206</v>
+        <v>0.1903607610317656</v>
       </c>
     </row>
     <row r="19">
@@ -1986,19 +1986,19 @@
         <v>370257</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>350297</v>
+        <v>349048</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>388751</v>
+        <v>388210</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.736880477137021</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.697155183151392</v>
+        <v>0.694669413609633</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.773686835163971</v>
+        <v>0.7726094510702965</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>444</v>
@@ -2007,19 +2007,19 @@
         <v>444098</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>420828</v>
+        <v>416872</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>469270</v>
+        <v>467565</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6561322295180358</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6217516947041667</v>
+        <v>0.6159066670415385</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6933228076186331</v>
+        <v>0.6908044839824696</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>828</v>
@@ -2028,19 +2028,19 @@
         <v>814355</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>780074</v>
+        <v>784663</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>844424</v>
+        <v>844615</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6905365151775023</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6614678235704385</v>
+        <v>0.6653587816690097</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7160336201676427</v>
+        <v>0.7161951541237752</v>
       </c>
     </row>
     <row r="23">
@@ -2057,19 +2057,19 @@
         <v>67555</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>53440</v>
+        <v>52962</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>84085</v>
+        <v>83890</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1344476945344142</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.106354897526927</v>
+        <v>0.1054043613720463</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1673444697453322</v>
+        <v>0.1669573599176143</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>101</v>
@@ -2078,19 +2078,19 @@
         <v>106900</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>88215</v>
+        <v>87911</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>127470</v>
+        <v>126236</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1579386664102227</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.130333363259295</v>
+        <v>0.1298836146458097</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1883310446480567</v>
+        <v>0.1865072891104948</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>171</v>
@@ -2099,19 +2099,19 @@
         <v>174455</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>150035</v>
+        <v>151409</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>199303</v>
+        <v>199983</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1479299029922561</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1272227677465345</v>
+        <v>0.1283877278563637</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1689999418618041</v>
+        <v>0.1695766046904804</v>
       </c>
     </row>
     <row r="24">
@@ -2128,19 +2128,19 @@
         <v>27123</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17608</v>
+        <v>18647</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>37864</v>
+        <v>39285</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05398016347910241</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03504304266777843</v>
+        <v>0.03711111501704625</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07535682882441976</v>
+        <v>0.07818359295251807</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>59</v>
@@ -2149,19 +2149,19 @@
         <v>64151</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>47790</v>
+        <v>50584</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>80164</v>
+        <v>81615</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09477975489245094</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07060731393166932</v>
+        <v>0.07473497500389752</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1184376730029142</v>
+        <v>0.1205820363180387</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>87</v>
@@ -2170,19 +2170,19 @@
         <v>91274</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>73561</v>
+        <v>73074</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>111493</v>
+        <v>110447</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07739633371410291</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06237599733316485</v>
+        <v>0.06196349788096284</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09454083314973984</v>
+        <v>0.09365388823610853</v>
       </c>
     </row>
     <row r="25">
@@ -2199,19 +2199,19 @@
         <v>20280</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13457</v>
+        <v>13329</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30835</v>
+        <v>29482</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04036171597111994</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02678199731724306</v>
+        <v>0.02652747318222822</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06136720379502251</v>
+        <v>0.05867415736501651</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -2220,19 +2220,19 @@
         <v>25525</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16297</v>
+        <v>16925</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>36753</v>
+        <v>37917</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03771210716283247</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02407823626761579</v>
+        <v>0.02500646297350305</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05430060645900752</v>
+        <v>0.05602032283088268</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -2241,19 +2241,19 @@
         <v>45806</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34320</v>
+        <v>33358</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>59239</v>
+        <v>59021</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03884102204351562</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02910173099134611</v>
+        <v>0.02828588653725595</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05023215507542412</v>
+        <v>0.05004722084603789</v>
       </c>
     </row>
     <row r="26">
@@ -2270,19 +2270,19 @@
         <v>17250</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10585</v>
+        <v>11062</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25824</v>
+        <v>27075</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03432994887834244</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02106539530807635</v>
+        <v>0.02201491763379411</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05139530729541737</v>
+        <v>0.05388336473384227</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>33</v>
@@ -2291,19 +2291,19 @@
         <v>36169</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>25695</v>
+        <v>25103</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>49947</v>
+        <v>50238</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05343724201645794</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03796362461719299</v>
+        <v>0.03708819728471081</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07379356181371877</v>
+        <v>0.07422377144523715</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>52</v>
@@ -2312,19 +2312,19 @@
         <v>53418</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>40067</v>
+        <v>40762</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>69144</v>
+        <v>68586</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04529622607262302</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03397512493163052</v>
+        <v>0.03456421460058601</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05863097387920072</v>
+        <v>0.05815766229732965</v>
       </c>
     </row>
     <row r="27">
@@ -2655,19 +2655,19 @@
         <v>286484</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>266490</v>
+        <v>266238</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>306871</v>
+        <v>304991</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6913266003651382</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6430773571675258</v>
+        <v>0.6424691439772151</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7405231316169973</v>
+        <v>0.7359861350462951</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>358</v>
@@ -2676,19 +2676,19 @@
         <v>376613</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>352662</v>
+        <v>353301</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>404027</v>
+        <v>403047</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5935159456001321</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5557707019075694</v>
+        <v>0.5567785727435025</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6367187290229257</v>
+        <v>0.6351741371096371</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>623</v>
@@ -2697,19 +2697,19 @@
         <v>663096</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>632440</v>
+        <v>628836</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>695721</v>
+        <v>695414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6321572631409035</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6029316104054819</v>
+        <v>0.5994959014517459</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6632594101700612</v>
+        <v>0.6629675341723686</v>
       </c>
     </row>
     <row r="5">
@@ -2726,19 +2726,19 @@
         <v>30424</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19626</v>
+        <v>20817</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43396</v>
+        <v>42480</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07341645102337167</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04735995028146606</v>
+        <v>0.05023388600476303</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1047210315189609</v>
+        <v>0.1025100115609541</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>75</v>
@@ -2747,19 +2747,19 @@
         <v>79551</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>62982</v>
+        <v>63954</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>98079</v>
+        <v>99253</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1253668764569129</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09925533247156711</v>
+        <v>0.1007874201372389</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1545660495317083</v>
+        <v>0.1564163057927488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>103</v>
@@ -2768,19 +2768,19 @@
         <v>109974</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>91091</v>
+        <v>91172</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>133631</v>
+        <v>130219</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1048432137702805</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08684074070531043</v>
+        <v>0.08691824574776952</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1273957195095431</v>
+        <v>0.1241431411215832</v>
       </c>
     </row>
     <row r="6">
@@ -2797,19 +2797,19 @@
         <v>33488</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23464</v>
+        <v>23059</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>45963</v>
+        <v>46540</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08081080622271949</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05662092341945767</v>
+        <v>0.05564506262952598</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1109161517326854</v>
+        <v>0.1123069228161827</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>49</v>
@@ -2818,19 +2818,19 @@
         <v>53029</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>41039</v>
+        <v>39857</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>67782</v>
+        <v>68096</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08356968707956068</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06467530567712954</v>
+        <v>0.06281152380865865</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1068199931311029</v>
+        <v>0.1073140073710025</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>80</v>
@@ -2839,19 +2839,19 @@
         <v>86516</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>68677</v>
+        <v>69858</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>106596</v>
+        <v>106118</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08247975683113853</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06547254505925083</v>
+        <v>0.06659893034336485</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1016225181899748</v>
+        <v>0.1011668502191666</v>
       </c>
     </row>
     <row r="7">
@@ -2868,19 +2868,19 @@
         <v>33202</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22009</v>
+        <v>22911</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47659</v>
+        <v>48301</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08012214280512109</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05311021478149593</v>
+        <v>0.05528859837716303</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1150068008021432</v>
+        <v>0.1165573198903436</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -2889,19 +2889,19 @@
         <v>62082</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48288</v>
+        <v>48207</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>78351</v>
+        <v>77805</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09783660053816609</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07609866557265395</v>
+        <v>0.07597072892810616</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1234765665330263</v>
+        <v>0.1226149393386455</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -2910,19 +2910,19 @@
         <v>95284</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>78601</v>
+        <v>77596</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>117966</v>
+        <v>115598</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09083828335104852</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07493371811615926</v>
+        <v>0.07397579035247705</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1124622509530413</v>
+        <v>0.1102039995438663</v>
       </c>
     </row>
     <row r="8">
@@ -2939,19 +2939,19 @@
         <v>30800</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20277</v>
+        <v>20834</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>42965</v>
+        <v>43415</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07432399958364957</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04893070701139049</v>
+        <v>0.05027419104532255</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1036803048826878</v>
+        <v>0.104767166986183</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>58</v>
@@ -2960,19 +2960,19 @@
         <v>63271</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48413</v>
+        <v>48641</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>80340</v>
+        <v>79360</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09971089032522829</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07629551531987011</v>
+        <v>0.07665558096314848</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1266102401081963</v>
+        <v>0.1250658833466355</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>84</v>
@@ -2981,19 +2981,19 @@
         <v>94071</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>75468</v>
+        <v>76364</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>116380</v>
+        <v>114303</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08968148290662893</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07194689097929198</v>
+        <v>0.07280060879486416</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1109502767139548</v>
+        <v>0.1089693743279126</v>
       </c>
     </row>
     <row r="9">
@@ -3085,19 +3085,19 @@
         <v>98650</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>87921</v>
+        <v>88341</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106454</v>
+        <v>105899</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8313321889843278</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7409210803887928</v>
+        <v>0.744458348577942</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8971006818600963</v>
+        <v>0.8924161414220787</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -3106,19 +3106,19 @@
         <v>61921</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52821</v>
+        <v>52259</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69705</v>
+        <v>69218</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7453734225955545</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6358335716718978</v>
+        <v>0.6290707982666599</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8390751892147408</v>
+        <v>0.8332080284766115</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>146</v>
@@ -3127,19 +3127,19 @@
         <v>160571</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>147087</v>
+        <v>148139</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>171773</v>
+        <v>172129</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.795935122736902</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7290939665250042</v>
+        <v>0.7343124527157258</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.851462016541054</v>
+        <v>0.8532256554377453</v>
       </c>
     </row>
     <row r="11">
@@ -3156,19 +3156,19 @@
         <v>3133</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8415</v>
+        <v>8670</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02639923833875961</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008299026044566876</v>
+        <v>0.00840219593079574</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07091159134852441</v>
+        <v>0.07306688230830423</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -3177,19 +3177,19 @@
         <v>11505</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5825</v>
+        <v>6048</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19654</v>
+        <v>20489</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1384938284839237</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07012393268809791</v>
+        <v>0.07279942038923766</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2365795236304891</v>
+        <v>0.2466363107483857</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -3198,19 +3198,19 @@
         <v>14638</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7845</v>
+        <v>9061</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24337</v>
+        <v>25380</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07255880763039889</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03888492245667918</v>
+        <v>0.04491230573014106</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1206382352613853</v>
+        <v>0.1258046327578833</v>
       </c>
     </row>
     <row r="12">
@@ -3227,19 +3227,19 @@
         <v>7421</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2973</v>
+        <v>3316</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14400</v>
+        <v>15138</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06253954583372165</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02505175873819621</v>
+        <v>0.02794327015923213</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1213541001388314</v>
+        <v>0.1275701767309299</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -3248,19 +3248,19 @@
         <v>4015</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1041</v>
+        <v>1013</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10037</v>
+        <v>9928</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0483319021200288</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01253308997059609</v>
+        <v>0.01218961134356737</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1208144740545556</v>
+        <v>0.1195056131919532</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -3269,19 +3269,19 @@
         <v>11436</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5954</v>
+        <v>5927</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19710</v>
+        <v>20142</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05668896273578772</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02951538530404473</v>
+        <v>0.02937960766225751</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09770213938432488</v>
+        <v>0.09984015195048741</v>
       </c>
     </row>
     <row r="13">
@@ -3298,19 +3298,19 @@
         <v>6328</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2056</v>
+        <v>2105</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16350</v>
+        <v>15848</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05332249811312133</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01732334462741987</v>
+        <v>0.0177373771452761</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1377837938657663</v>
+        <v>0.1335506893342226</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7322</v>
+        <v>6481</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02538631575180189</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08813943125458888</v>
+        <v>0.07801030408673781</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -3340,19 +3340,19 @@
         <v>8436</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3912</v>
+        <v>3190</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18470</v>
+        <v>18711</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04181862318230401</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01938995809084658</v>
+        <v>0.01581290782567965</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09155596912361341</v>
+        <v>0.09275018952684784</v>
       </c>
     </row>
     <row r="14">
@@ -3369,19 +3369,19 @@
         <v>3134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>993</v>
+        <v>967</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8504</v>
+        <v>8358</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02640652873006964</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00836931814195228</v>
+        <v>0.008145704879513898</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0716641938400662</v>
+        <v>0.07042989705537786</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -3390,19 +3390,19 @@
         <v>3524</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9880</v>
+        <v>10046</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04241453104869103</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01309492774500368</v>
+        <v>0.01304182613994071</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1189279466647109</v>
+        <v>0.1209315773723531</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -3411,19 +3411,19 @@
         <v>6657</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2456</v>
+        <v>3110</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13721</v>
+        <v>13879</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03299848371460735</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01217439807582255</v>
+        <v>0.01541389537276977</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06801273408709035</v>
+        <v>0.06879796114413227</v>
       </c>
     </row>
     <row r="15">
@@ -3515,7 +3515,7 @@
         <v>24547</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20529</v>
+        <v>19941</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>26575</v>
@@ -3524,7 +3524,7 @@
         <v>0.9236788816403221</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7724807587636594</v>
+        <v>0.7503828793083349</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -3536,19 +3536,19 @@
         <v>17823</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12735</v>
+        <v>12089</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21146</v>
+        <v>21102</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8011633674033295</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5724672057175089</v>
+        <v>0.5434278097126569</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9505646757423644</v>
+        <v>0.9485708641385925</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -3557,19 +3557,19 @@
         <v>42369</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35898</v>
+        <v>36043</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46475</v>
+        <v>45929</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8678524753484315</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7352999802003102</v>
+        <v>0.7382642958006183</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9519511272378134</v>
+        <v>0.9407686080890688</v>
       </c>
     </row>
     <row r="17">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5727</v>
+        <v>5884</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04984115103425768</v>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2574177926682996</v>
+        <v>0.2645087589489576</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5920</v>
+        <v>5626</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0227110204370657</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1212657250074874</v>
+        <v>0.1152329423678586</v>
       </c>
     </row>
     <row r="18">
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5278</v>
+        <v>5334</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03923360703863061</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1986170841285252</v>
+        <v>0.2007010018580365</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5533</v>
+        <v>5143</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02135610556075136</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1133225195905341</v>
+        <v>0.105352392073894</v>
       </c>
     </row>
     <row r="19">
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4419</v>
+        <v>4456</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03708751132104731</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1662853831390793</v>
+        <v>0.1676611282234833</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6663</v>
+        <v>6768</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09956782601672624</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2995068698213548</v>
+        <v>0.3042338294797753</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -3754,19 +3754,19 @@
         <v>3201</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>965</v>
+        <v>914</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8481</v>
+        <v>8409</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06555779490243038</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0197635689789902</v>
+        <v>0.01872348400696852</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1737126187280721</v>
+        <v>0.1722515264640008</v>
       </c>
     </row>
     <row r="20">
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6301</v>
+        <v>6829</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04942765554568661</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2832437284772489</v>
+        <v>0.3069581542612883</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5849</v>
+        <v>5786</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02252260375132108</v>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1198099895343084</v>
+        <v>0.1185091255341594</v>
       </c>
     </row>
     <row r="21">
@@ -3921,19 +3921,19 @@
         <v>409680</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>386975</v>
+        <v>387017</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>431897</v>
+        <v>431741</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7320465494883265</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6914747482212765</v>
+        <v>0.691549239457575</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.771744617224526</v>
+        <v>0.7714666353609592</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>431</v>
@@ -3942,19 +3942,19 @@
         <v>456356</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>429810</v>
+        <v>428978</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>483679</v>
+        <v>483429</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6168104508422597</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5809304248521908</v>
+        <v>0.579805650550551</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6537392226356404</v>
+        <v>0.6534019676892966</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>802</v>
@@ -3963,19 +3963,19 @@
         <v>866037</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>832025</v>
+        <v>831355</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>898891</v>
+        <v>901050</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6664374536520634</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.640264566621128</v>
+        <v>0.6397487140584279</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6917195736384594</v>
+        <v>0.6933808506315949</v>
       </c>
     </row>
     <row r="23">
@@ -3992,19 +3992,19 @@
         <v>33556</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23077</v>
+        <v>23281</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>47156</v>
+        <v>45741</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05996077112903619</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04123643413392623</v>
+        <v>0.04159997932206658</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08426100689027154</v>
+        <v>0.08173251176998743</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>85</v>
@@ -4013,19 +4013,19 @@
         <v>92165</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>75383</v>
+        <v>75669</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>112552</v>
+        <v>113071</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1245699346797487</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1018868559022693</v>
+        <v>0.1022745182210062</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1521248889536892</v>
+        <v>0.1528268135977835</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>116</v>
@@ -4034,19 +4034,19 @@
         <v>125721</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>105934</v>
+        <v>103968</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>148633</v>
+        <v>148295</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09674567493178368</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0815192443707253</v>
+        <v>0.08000582594076021</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1143770788710331</v>
+        <v>0.114116555707831</v>
       </c>
     </row>
     <row r="24">
@@ -4063,19 +4063,19 @@
         <v>41952</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>31026</v>
+        <v>30542</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56071</v>
+        <v>57445</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07496228127889146</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05543911748133393</v>
+        <v>0.05457381554573649</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1001909030320516</v>
+        <v>0.1026475722203105</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>53</v>
@@ -4084,19 +4084,19 @@
         <v>57044</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>43605</v>
+        <v>43523</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>74005</v>
+        <v>72535</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07710033507983657</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05893588344252761</v>
+        <v>0.05882594023143712</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.100024361828516</v>
+        <v>0.09803773367706238</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>92</v>
@@ -4105,19 +4105,19 @@
         <v>98996</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>82240</v>
+        <v>80942</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>120532</v>
+        <v>121234</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07617957150632387</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06328605298097233</v>
+        <v>0.06228661077151228</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09275252257408165</v>
+        <v>0.0932928903008097</v>
       </c>
     </row>
     <row r="25">
@@ -4134,19 +4134,19 @@
         <v>40516</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28124</v>
+        <v>28027</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54505</v>
+        <v>55453</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07239606332318689</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05025363690106929</v>
+        <v>0.05007990532808768</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09739391913013373</v>
+        <v>0.09908787604778514</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>60</v>
@@ -4155,19 +4155,19 @@
         <v>66406</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>49656</v>
+        <v>51572</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>83443</v>
+        <v>82364</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08975370439356871</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0671154252012373</v>
+        <v>0.06970436117026645</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1127813976624296</v>
+        <v>0.1113229309871058</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>94</v>
@@ -4176,19 +4176,19 @@
         <v>106921</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>86052</v>
+        <v>86450</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>130112</v>
+        <v>127388</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08227854936582772</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06621892983645336</v>
+        <v>0.06652512830501409</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.100124772833977</v>
+        <v>0.0980280751109128</v>
       </c>
     </row>
     <row r="26">
@@ -4205,19 +4205,19 @@
         <v>33933</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>23478</v>
+        <v>23339</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>48311</v>
+        <v>48620</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06063433478055898</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04195228829737516</v>
+        <v>0.04170307752231689</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08632491261992964</v>
+        <v>0.08687816744129551</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>62</v>
@@ -4226,19 +4226,19 @@
         <v>67894</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>52144</v>
+        <v>51919</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>85157</v>
+        <v>85845</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09176557500458636</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07047746672809818</v>
+        <v>0.07017415834216022</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1150983444012463</v>
+        <v>0.1160274145778498</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>91</v>
@@ -4247,19 +4247,19 @@
         <v>101827</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>81665</v>
+        <v>81270</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>123376</v>
+        <v>123145</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07835875054400129</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06284302663894831</v>
+        <v>0.06253935595495802</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.09494127941937561</v>
+        <v>0.09476339752341177</v>
       </c>
     </row>
     <row r="27">
@@ -4590,19 +4590,19 @@
         <v>257552</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>241759</v>
+        <v>241840</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>271207</v>
+        <v>272702</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7277529128626795</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6831264692612561</v>
+        <v>0.6833541007081414</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7663348725192428</v>
+        <v>0.7705609377261521</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>297</v>
@@ -4611,19 +4611,19 @@
         <v>340123</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>315077</v>
+        <v>314136</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>364661</v>
+        <v>364249</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6131033699585678</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5679551284896649</v>
+        <v>0.5662588992513377</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6573348598423122</v>
+        <v>0.6565920862750128</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>575</v>
@@ -4632,19 +4632,19 @@
         <v>597676</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>569571</v>
+        <v>569459</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>628416</v>
+        <v>626801</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6577567245644874</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.626826559498845</v>
+        <v>0.626702957797446</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6915874277732946</v>
+        <v>0.689809722971225</v>
       </c>
     </row>
     <row r="5">
@@ -4661,19 +4661,19 @@
         <v>25665</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17933</v>
+        <v>18064</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35353</v>
+        <v>36989</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07252110366679998</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0506736032280784</v>
+        <v>0.0510424165371409</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09989385306141083</v>
+        <v>0.1045180795787739</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>53</v>
@@ -4682,19 +4682,19 @@
         <v>62951</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47827</v>
+        <v>48346</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>80612</v>
+        <v>80172</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.113474595720621</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08621200593717204</v>
+        <v>0.08714753851440755</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1453100130126384</v>
+        <v>0.144517928881349</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>82</v>
@@ -4703,19 +4703,19 @@
         <v>88616</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>71220</v>
+        <v>70843</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>108310</v>
+        <v>108460</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09752415443051099</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07837938618245834</v>
+        <v>0.07796453332771938</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1191980522109774</v>
+        <v>0.1193630335547513</v>
       </c>
     </row>
     <row r="6">
@@ -4732,19 +4732,19 @@
         <v>29664</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20956</v>
+        <v>20954</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39493</v>
+        <v>40608</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08382134534673132</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05921303162748956</v>
+        <v>0.0592095015924655</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1115933820650914</v>
+        <v>0.1147425742209731</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>54</v>
@@ -4753,19 +4753,19 @@
         <v>65565</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>49582</v>
+        <v>51678</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>85373</v>
+        <v>85707</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1181872520405382</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08937593540822919</v>
+        <v>0.0931544345926707</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1538924991554878</v>
+        <v>0.1544951452146974</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>87</v>
@@ -4774,19 +4774,19 @@
         <v>95230</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>75703</v>
+        <v>77984</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>116319</v>
+        <v>116153</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.10480252342251</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08331344990664349</v>
+        <v>0.08582293786227528</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1280113456335265</v>
+        <v>0.1278295488886053</v>
       </c>
     </row>
     <row r="7">
@@ -4803,19 +4803,19 @@
         <v>24989</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17268</v>
+        <v>16504</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34983</v>
+        <v>35078</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07061035440230676</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0487922061961455</v>
+        <v>0.04663408065967137</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09884852246366781</v>
+        <v>0.09911798522537671</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -4824,19 +4824,19 @@
         <v>49888</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36556</v>
+        <v>36505</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66547</v>
+        <v>66675</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08992708855739162</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06589571937108435</v>
+        <v>0.06580288102721385</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1199563715686139</v>
+        <v>0.1201873688640625</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -4845,19 +4845,19 @@
         <v>74877</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58392</v>
+        <v>58565</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>92953</v>
+        <v>92637</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08240366580134371</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06426139753716864</v>
+        <v>0.06445271907251673</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1022970766608715</v>
+        <v>0.1019492678160987</v>
       </c>
     </row>
     <row r="8">
@@ -4874,19 +4874,19 @@
         <v>16030</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9583</v>
+        <v>10120</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23956</v>
+        <v>24875</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04529428372148248</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0270784875671075</v>
+        <v>0.02859655129999341</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06769084498533583</v>
+        <v>0.07028841969243385</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -4895,19 +4895,19 @@
         <v>36230</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25172</v>
+        <v>26036</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>52055</v>
+        <v>52484</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06530769372288138</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04537562594413088</v>
+        <v>0.04693223990326603</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09383443522302121</v>
+        <v>0.09460670346793797</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>46</v>
@@ -4916,19 +4916,19 @@
         <v>52260</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>37982</v>
+        <v>39308</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>69318</v>
+        <v>69873</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05751293178114777</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04180007419430289</v>
+        <v>0.04325931751499176</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0762857187889549</v>
+        <v>0.07689743643266261</v>
       </c>
     </row>
     <row r="9">
@@ -5020,19 +5020,19 @@
         <v>169656</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>158296</v>
+        <v>159850</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>176955</v>
+        <v>177278</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8811815096114634</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8221806065613247</v>
+        <v>0.8302490343212433</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9190921479574327</v>
+        <v>0.9207690278421689</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>114</v>
@@ -5041,19 +5041,19 @@
         <v>133340</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>119142</v>
+        <v>117731</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>146699</v>
+        <v>146676</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.708975053712513</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6334834429021785</v>
+        <v>0.6259813197780227</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7800048520401748</v>
+        <v>0.7798847316783856</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>285</v>
@@ -5062,19 +5062,19 @@
         <v>302995</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>286884</v>
+        <v>285277</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>319227</v>
+        <v>319017</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7960867985020597</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7537549212643002</v>
+        <v>0.749532461401364</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8387342793759704</v>
+        <v>0.838180997039111</v>
       </c>
     </row>
     <row r="11">
@@ -5091,19 +5091,19 @@
         <v>8542</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4259</v>
+        <v>4229</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14796</v>
+        <v>14952</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0443645012593555</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02212146166784157</v>
+        <v>0.02196643599615257</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07685165120722035</v>
+        <v>0.07766127422841758</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -5112,19 +5112,19 @@
         <v>26693</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17626</v>
+        <v>17114</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38585</v>
+        <v>38633</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1419263605103774</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09372060098941885</v>
+        <v>0.09099875124732106</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2051589347788294</v>
+        <v>0.2054155141982228</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>32</v>
@@ -5133,19 +5133,19 @@
         <v>35234</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>24189</v>
+        <v>24657</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>48393</v>
+        <v>48953</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09257406567390668</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06355390400396588</v>
+        <v>0.06478419504212343</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1271459338109518</v>
+        <v>0.1286195215550321</v>
       </c>
     </row>
     <row r="12">
@@ -5162,19 +5162,19 @@
         <v>8235</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4153</v>
+        <v>4148</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15790</v>
+        <v>15677</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04277317020601802</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02157040368635519</v>
+        <v>0.02154647398707197</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08201093188155029</v>
+        <v>0.08142350304490752</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -5183,19 +5183,19 @@
         <v>10479</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4972</v>
+        <v>5098</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20121</v>
+        <v>21347</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05571784089206389</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02643654460972164</v>
+        <v>0.0271069520675569</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1069846385054799</v>
+        <v>0.1135028267647712</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>17</v>
@@ -5204,19 +5204,19 @@
         <v>18714</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10990</v>
+        <v>11331</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>29030</v>
+        <v>29208</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04916969585707611</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02887466487258353</v>
+        <v>0.02977172169418904</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07627317756752343</v>
+        <v>0.07674110614610102</v>
       </c>
     </row>
     <row r="13">
@@ -5233,19 +5233,19 @@
         <v>5263</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2148</v>
+        <v>2382</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10808</v>
+        <v>11364</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02733627231779234</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01115727349212145</v>
+        <v>0.01236955525802043</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05613394465499901</v>
+        <v>0.05902301167668157</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -5254,19 +5254,19 @@
         <v>14239</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7484</v>
+        <v>7412</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24653</v>
+        <v>24790</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07570827491559314</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03979133462396758</v>
+        <v>0.03941103896789115</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1310824154212573</v>
+        <v>0.1318107700563683</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -5275,19 +5275,19 @@
         <v>19502</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11301</v>
+        <v>11761</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30477</v>
+        <v>31454</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05123898586796578</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02969085413868112</v>
+        <v>0.03090120506513779</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0800759279440135</v>
+        <v>0.08264265763943174</v>
       </c>
     </row>
     <row r="14">
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4204</v>
+        <v>5087</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004344546605370757</v>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02183280078482004</v>
+        <v>0.02642218482771112</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10781</v>
+        <v>12765</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01767246996945258</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05732293998101467</v>
+        <v>0.06787459329027885</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -5346,19 +5346,19 @@
         <v>4160</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12960</v>
+        <v>11808</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01093045409899178</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002171254411092581</v>
+        <v>0.00218228016260814</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03404973373457602</v>
+        <v>0.03102497338188415</v>
       </c>
     </row>
     <row r="15">
@@ -5450,19 +5450,19 @@
         <v>36911</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31078</v>
+        <v>30349</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40231</v>
+        <v>40280</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8782214091476306</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7394467633181502</v>
+        <v>0.7220884569916046</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9572306705813594</v>
+        <v>0.9583928364716744</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -5471,19 +5471,19 @@
         <v>25537</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18446</v>
+        <v>17504</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30270</v>
+        <v>30368</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7583509192250097</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5477742377458422</v>
+        <v>0.5198006003907722</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.898923611139097</v>
+        <v>0.9018146863339591</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -5492,19 +5492,19 @@
         <v>62447</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53649</v>
+        <v>53963</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69140</v>
+        <v>69184</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8249010341802461</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7086734276086849</v>
+        <v>0.7128278381639709</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9133080586467655</v>
+        <v>0.9138819543170873</v>
       </c>
     </row>
     <row r="17">
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5599</v>
+        <v>6169</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0249934901811217</v>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1332229566406465</v>
+        <v>0.1467860816488092</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -5542,19 +5542,19 @@
         <v>4515</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11784</v>
+        <v>12357</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.134076329610056</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03122174257015225</v>
+        <v>0.03143699100504585</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3499325400734298</v>
+        <v>0.3669492496503901</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -5563,19 +5563,19 @@
         <v>5565</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1229</v>
+        <v>1294</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>13371</v>
+        <v>13747</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07351533992589497</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01623837375257909</v>
+        <v>0.01708896004181071</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1766294816531298</v>
+        <v>0.1815882123526092</v>
       </c>
     </row>
     <row r="18">
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7180</v>
+        <v>8181</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05491820555694648</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1708462182170812</v>
+        <v>0.1946576772921431</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7231</v>
+        <v>7579</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06671687237708207</v>
@@ -5625,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2147420148153016</v>
+        <v>0.225069931177249</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -5634,19 +5634,19 @@
         <v>4555</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1170</v>
+        <v>1239</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>11198</v>
+        <v>10914</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06016644755020914</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01544940444197153</v>
+        <v>0.01636146086533097</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1479177527152945</v>
+        <v>0.1441709537919625</v>
       </c>
     </row>
     <row r="19">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5332</v>
+        <v>5298</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04186689511430128</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1268664232381098</v>
+        <v>0.1260522937023959</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6273</v>
+        <v>5635</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02324380825067255</v>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08286946755585226</v>
+        <v>0.07443816213222228</v>
       </c>
     </row>
     <row r="20">
@@ -5742,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7265</v>
+        <v>6865</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04085587878785221</v>
@@ -5751,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2157572230641128</v>
+        <v>0.2038683198462604</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7075</v>
+        <v>8506</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01817337009297725</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09346101156033794</v>
+        <v>0.1123636791526176</v>
       </c>
     </row>
     <row r="21">
@@ -5864,19 +5864,19 @@
         <v>464120</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>444731</v>
+        <v>445083</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>483132</v>
+        <v>481774</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7886981423555777</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7557498202227716</v>
+        <v>0.7563490258752577</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8210064337497738</v>
+        <v>0.818698250455441</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>431</v>
@@ -5885,19 +5885,19 @@
         <v>499000</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>470744</v>
+        <v>469716</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>529201</v>
+        <v>526920</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6426228884207063</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6062347564455685</v>
+        <v>0.6049107851559075</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6815160114643939</v>
+        <v>0.6785785274244109</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>916</v>
@@ -5906,19 +5906,19 @@
         <v>963120</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>927194</v>
+        <v>927750</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>998780</v>
+        <v>997078</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7055986224826252</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6792789400756564</v>
+        <v>0.6796863869456882</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7317238885330525</v>
+        <v>0.7304775119450432</v>
       </c>
     </row>
     <row r="23">
@@ -5935,19 +5935,19 @@
         <v>35257</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>25942</v>
+        <v>25959</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>47569</v>
+        <v>48203</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05991436480111251</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0440837870157749</v>
+        <v>0.04411283399216789</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08083539693594553</v>
+        <v>0.08191364573541761</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>78</v>
@@ -5956,19 +5956,19 @@
         <v>94158</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>76275</v>
+        <v>73994</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>116718</v>
+        <v>114756</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1212591998835481</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09822895255100135</v>
+        <v>0.09529066410633937</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1503121652745881</v>
+        <v>0.1477856266389663</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>118</v>
@@ -5977,19 +5977,19 @@
         <v>129416</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>107530</v>
+        <v>108101</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>152837</v>
+        <v>154710</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09481231092625636</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07877818946808098</v>
+        <v>0.07919645440497226</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1119713312808653</v>
+        <v>0.1133433708679323</v>
       </c>
     </row>
     <row r="24">
@@ -6006,19 +6006,19 @@
         <v>40208</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>28748</v>
+        <v>29525</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>52860</v>
+        <v>53278</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06832696325114132</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04885346325914246</v>
+        <v>0.05017364834094666</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08982687845041798</v>
+        <v>0.09053818384976785</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>64</v>
@@ -6027,19 +6027,19 @@
         <v>78291</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>61714</v>
+        <v>59841</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>97695</v>
+        <v>99107</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1008247176698822</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0794763990742775</v>
+        <v>0.07706400909582176</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1258132269366624</v>
+        <v>0.1276324229055702</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>108</v>
@@ -6048,19 +6048,19 @@
         <v>118499</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>99451</v>
+        <v>98304</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>141167</v>
+        <v>141774</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08681433682333133</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0728593547505515</v>
+        <v>0.07201935880471996</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1034211190284926</v>
+        <v>0.1038658285010307</v>
       </c>
     </row>
     <row r="25">
@@ -6077,19 +6077,19 @@
         <v>32012</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22731</v>
+        <v>22906</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43894</v>
+        <v>43434</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05439910906157064</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03862787882188185</v>
+        <v>0.03892565322735314</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0745904650182862</v>
+        <v>0.07381001873169653</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>50</v>
@@ -6098,19 +6098,19 @@
         <v>64126</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>48492</v>
+        <v>48064</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>83243</v>
+        <v>81984</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0825834151728352</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06244963411050015</v>
+        <v>0.06189789077808231</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1072018254413931</v>
+        <v>0.1055812133124272</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>86</v>
@@ -6119,19 +6119,19 @@
         <v>96138</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>77010</v>
+        <v>79074</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>117286</v>
+        <v>117330</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07043264138623562</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05641902158544656</v>
+        <v>0.05793124024099527</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08592569126455028</v>
+        <v>0.08595784621149131</v>
       </c>
     </row>
     <row r="26">
@@ -6148,19 +6148,19 @@
         <v>16866</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10954</v>
+        <v>10072</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26268</v>
+        <v>26042</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02866142053059786</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01861375204473806</v>
+        <v>0.01711493331414077</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04463849570780546</v>
+        <v>0.04425499254561501</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>31</v>
@@ -6169,19 +6169,19 @@
         <v>40929</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>28600</v>
+        <v>29416</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>58623</v>
+        <v>58134</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05270977885302831</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03683112835229614</v>
+        <v>0.03788252943998596</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07549651911128955</v>
+        <v>0.07486624482155742</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>50</v>
@@ -6190,19 +6190,19 @@
         <v>57796</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>43053</v>
+        <v>43507</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>75244</v>
+        <v>75162</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04234208838155155</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03154175793683448</v>
+        <v>0.03187427504096348</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0551252645424153</v>
+        <v>0.05506498384896164</v>
       </c>
     </row>
     <row r="27">
@@ -6533,19 +6533,19 @@
         <v>178419</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>164829</v>
+        <v>164231</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>192492</v>
+        <v>190734</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6230967138709892</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5756357295810848</v>
+        <v>0.5735471716676498</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6722456180580267</v>
+        <v>0.666104759055976</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>476</v>
@@ -6554,19 +6554,19 @@
         <v>251183</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>236222</v>
+        <v>235244</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>268752</v>
+        <v>267952</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4689793532674975</v>
+        <v>0.4689793532674976</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4410455138048104</v>
+        <v>0.4392185560951982</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.501781851750991</v>
+        <v>0.5002870410602426</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>730</v>
@@ -6575,19 +6575,19 @@
         <v>429602</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>407094</v>
+        <v>407620</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>451600</v>
+        <v>452582</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5226698476631666</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4952858154202255</v>
+        <v>0.4959259279455125</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5494327816190288</v>
+        <v>0.5506282912588573</v>
       </c>
     </row>
     <row r="5">
@@ -6604,19 +6604,19 @@
         <v>33448</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24585</v>
+        <v>25186</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>43490</v>
+        <v>43881</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1168110846714486</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08585869028646796</v>
+        <v>0.08795655283274723</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1518799049666935</v>
+        <v>0.1532469368307769</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>148</v>
@@ -6625,19 +6625,19 @@
         <v>78570</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>66590</v>
+        <v>67464</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>90650</v>
+        <v>92338</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1466972517418823</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1243282765004913</v>
+        <v>0.125961030087316</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1692497889184993</v>
+        <v>0.1724018817528875</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>196</v>
@@ -6646,19 +6646,19 @@
         <v>112018</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>96459</v>
+        <v>98410</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>126633</v>
+        <v>128677</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.13628568565147</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1173555327039276</v>
+        <v>0.119729282665366</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.154065833521868</v>
+        <v>0.1565534603230139</v>
       </c>
     </row>
     <row r="6">
@@ -6675,19 +6675,19 @@
         <v>19219</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13957</v>
+        <v>13697</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26742</v>
+        <v>26058</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06712058803571549</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04874288362870265</v>
+        <v>0.04783587513654123</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09339310167491525</v>
+        <v>0.09100242596765511</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>128</v>
@@ -6696,19 +6696,19 @@
         <v>69584</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>58910</v>
+        <v>58207</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>81765</v>
+        <v>81888</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1299189143297322</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1099902021634804</v>
+        <v>0.1086766218781352</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.152662555938785</v>
+        <v>0.1528914742493197</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>162</v>
@@ -6717,19 +6717,19 @@
         <v>88804</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>75990</v>
+        <v>76778</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>102328</v>
+        <v>102236</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1080416049030491</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09245250553857168</v>
+        <v>0.0934111229234091</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1244960716768295</v>
+        <v>0.1243840824308707</v>
       </c>
     </row>
     <row r="7">
@@ -6746,19 +6746,19 @@
         <v>38776</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29397</v>
+        <v>29378</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48562</v>
+        <v>48044</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1354181366682804</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1026632237112806</v>
+        <v>0.1025977629375716</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1695929239060527</v>
+        <v>0.1677870910476097</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>146</v>
@@ -6767,19 +6767,19 @@
         <v>74648</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62777</v>
+        <v>62882</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>86920</v>
+        <v>87002</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1393741517521906</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1172099062254766</v>
+        <v>0.117405728722828</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.162286284706908</v>
+        <v>0.162439546302545</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>205</v>
@@ -6788,19 +6788,19 @@
         <v>113424</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>98871</v>
+        <v>98496</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>129578</v>
+        <v>131141</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1379959786193252</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1202902825052078</v>
+        <v>0.1198335596649872</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1576497465177877</v>
+        <v>0.1595508750603799</v>
       </c>
     </row>
     <row r="8">
@@ -6817,19 +6817,19 @@
         <v>16480</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10881</v>
+        <v>11293</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24138</v>
+        <v>23490</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05755347675356633</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03799900452589791</v>
+        <v>0.03944051676790874</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08429617285270741</v>
+        <v>0.082034878428406</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>115</v>
@@ -6838,19 +6838,19 @@
         <v>61610</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>51122</v>
+        <v>50431</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>73590</v>
+        <v>72823</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1150303289086972</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09544831354033709</v>
+        <v>0.09415899076732011</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1373982294221926</v>
+        <v>0.1359653598267718</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>143</v>
@@ -6859,19 +6859,19 @@
         <v>78090</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>65911</v>
+        <v>66333</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>92896</v>
+        <v>92143</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.09500688316298907</v>
+        <v>0.09500688316298908</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08018986705789831</v>
+        <v>0.08070280747961446</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.113020379430425</v>
+        <v>0.1121042794258417</v>
       </c>
     </row>
     <row r="9">
@@ -6963,19 +6963,19 @@
         <v>253650</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>243057</v>
+        <v>241708</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>263260</v>
+        <v>263447</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8366965580388238</v>
+        <v>0.8366965580388237</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8017522449964715</v>
+        <v>0.7973039648806106</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8683948891942408</v>
+        <v>0.8690105617766369</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>400</v>
@@ -6984,19 +6984,19 @@
         <v>208173</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>196804</v>
+        <v>195985</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>217638</v>
+        <v>218000</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.75505645965448</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7138205536679536</v>
+        <v>0.7108491264756409</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7893865041993614</v>
+        <v>0.7907011162489284</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>752</v>
@@ -7005,19 +7005,19 @@
         <v>461824</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>445255</v>
+        <v>446810</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>474948</v>
+        <v>477462</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7978123769264817</v>
+        <v>0.7978123769264818</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7691885949369427</v>
+        <v>0.7718745135702703</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8204835711109185</v>
+        <v>0.8248270904632314</v>
       </c>
     </row>
     <row r="11">
@@ -7034,19 +7034,19 @@
         <v>18607</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12982</v>
+        <v>12364</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26595</v>
+        <v>26990</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06137897251803107</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0428242429432806</v>
+        <v>0.04078351350081065</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08772699132452436</v>
+        <v>0.08903111415448937</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -7055,19 +7055,19 @@
         <v>27434</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20380</v>
+        <v>20665</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35060</v>
+        <v>35376</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09950354439113228</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07391941265658927</v>
+        <v>0.07495320763542451</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1271667146702785</v>
+        <v>0.1283097089592735</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>76</v>
@@ -7076,19 +7076,19 @@
         <v>46041</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37845</v>
+        <v>36723</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>57312</v>
+        <v>56872</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.07953724016936516</v>
+        <v>0.07953724016936518</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0653774178264116</v>
+        <v>0.06344062543156628</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09900827005520613</v>
+        <v>0.09824707235579175</v>
       </c>
     </row>
     <row r="12">
@@ -7105,19 +7105,19 @@
         <v>11835</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7260</v>
+        <v>7172</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17769</v>
+        <v>18669</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.03903976677561775</v>
+        <v>0.03903976677561774</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0239483732393767</v>
+        <v>0.02365724139924144</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05861213530938107</v>
+        <v>0.06158279975995471</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -7126,19 +7126,19 @@
         <v>12680</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8204</v>
+        <v>8143</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18255</v>
+        <v>18809</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.04599256836901029</v>
+        <v>0.04599256836901028</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02975628385258377</v>
+        <v>0.02953599131470116</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06621345950080416</v>
+        <v>0.06822241661682482</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>43</v>
@@ -7147,19 +7147,19 @@
         <v>24516</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18504</v>
+        <v>18111</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>32310</v>
+        <v>33123</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.04235130120227763</v>
+        <v>0.04235130120227764</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03196641972862122</v>
+        <v>0.03128713755142341</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05581577372217714</v>
+        <v>0.05722163201873343</v>
       </c>
     </row>
     <row r="13">
@@ -7176,19 +7176,19 @@
         <v>12166</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7002</v>
+        <v>7318</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18792</v>
+        <v>18536</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04013090649649308</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0230982212983491</v>
+        <v>0.02413904227567612</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06198802781205534</v>
+        <v>0.06114469540633792</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -7197,19 +7197,19 @@
         <v>16592</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11439</v>
+        <v>11280</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23775</v>
+        <v>22740</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06017916356808848</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04149145739141395</v>
+        <v>0.04091438254015341</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08623520103715261</v>
+        <v>0.08247890736118133</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>48</v>
@@ -7218,19 +7218,19 @@
         <v>28758</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>21738</v>
+        <v>21212</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37403</v>
+        <v>37583</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0496796463239331</v>
+        <v>0.04967964632393311</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03755230253066771</v>
+        <v>0.03664508766016313</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06461375783693117</v>
+        <v>0.06492544277468797</v>
       </c>
     </row>
     <row r="14">
@@ -7247,19 +7247,19 @@
         <v>6898</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3391</v>
+        <v>3685</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12534</v>
+        <v>13027</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02275379617103439</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01118677818052298</v>
+        <v>0.01215459492043044</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04134524645393313</v>
+        <v>0.04297206284824005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -7268,19 +7268,19 @@
         <v>10826</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6851</v>
+        <v>7070</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16514</v>
+        <v>16713</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.03926826401728912</v>
+        <v>0.03926826401728913</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02484855485504718</v>
+        <v>0.02564501188853961</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05989885192319291</v>
+        <v>0.06061992735119862</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -7289,19 +7289,19 @@
         <v>17724</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11966</v>
+        <v>12618</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>25066</v>
+        <v>25480</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03061943537794233</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0206717040309822</v>
+        <v>0.02179845261745451</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04330185099303576</v>
+        <v>0.0440170166635662</v>
       </c>
     </row>
     <row r="15">
@@ -7393,19 +7393,19 @@
         <v>100546</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>92159</v>
+        <v>93575</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>105579</v>
+        <v>106020</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8584998994272591</v>
+        <v>0.858499899427259</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7868873739557743</v>
+        <v>0.7989768470727787</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.901472135561273</v>
+        <v>0.905243458144788</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>122</v>
@@ -7414,19 +7414,19 @@
         <v>66068</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>59800</v>
+        <v>60552</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70520</v>
+        <v>70867</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7973977590687061</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7217405189877956</v>
+        <v>0.7308224370350197</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8511229926057825</v>
+        <v>0.8553092940196202</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>263</v>
@@ -7435,19 +7435,19 @@
         <v>166614</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>157551</v>
+        <v>158601</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>174537</v>
+        <v>174873</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8331833032355141</v>
+        <v>0.8331833032355144</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7878596085630452</v>
+        <v>0.7931101198764005</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8728014161563437</v>
+        <v>0.8744812956359489</v>
       </c>
     </row>
     <row r="17">
@@ -7464,19 +7464,19 @@
         <v>8995</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5093</v>
+        <v>5367</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14434</v>
+        <v>14783</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07680606697808712</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04348648523292535</v>
+        <v>0.04582512590975347</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1232416258698951</v>
+        <v>0.126222099577297</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -7485,19 +7485,19 @@
         <v>8709</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5451</v>
+        <v>5100</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13861</v>
+        <v>13677</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1051111180105053</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06578504754465408</v>
+        <v>0.06154910126154021</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1672951373290454</v>
+        <v>0.1650692569648346</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>30</v>
@@ -7506,19 +7506,19 @@
         <v>17704</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12498</v>
+        <v>12330</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24846</v>
+        <v>24660</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08853376658025261</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06249715585610103</v>
+        <v>0.06165740813203551</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.12424859651496</v>
+        <v>0.1233157878853605</v>
       </c>
     </row>
     <row r="18">
@@ -7535,19 +7535,19 @@
         <v>4147</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1552</v>
+        <v>1456</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10323</v>
+        <v>10630</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03541205265682737</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01325146277017483</v>
+        <v>0.01242784998390016</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08814344798725968</v>
+        <v>0.09075918100360084</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>7</v>
@@ -7556,19 +7556,19 @@
         <v>3622</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1518</v>
+        <v>1598</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7057</v>
+        <v>7283</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04371459128869071</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01832436190417869</v>
+        <v>0.01928297515282265</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08517662840859054</v>
+        <v>0.08789740743296393</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>12</v>
@@ -7577,19 +7577,19 @@
         <v>7769</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>4185</v>
+        <v>3869</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>14336</v>
+        <v>13920</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03885206337782372</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02092720864099647</v>
+        <v>0.01934855849669133</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07169206108020507</v>
+        <v>0.06960831162457834</v>
       </c>
     </row>
     <row r="19">
@@ -7609,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4347</v>
+        <v>4051</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01062028858962725</v>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03712028534307964</v>
+        <v>0.03458862567594713</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -7627,19 +7627,19 @@
         <v>3406</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1311</v>
+        <v>1328</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7278</v>
+        <v>7909</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04110717419852455</v>
+        <v>0.04110717419852454</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01582443507459524</v>
+        <v>0.01602546753195125</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08783724961853757</v>
+        <v>0.09545815246952553</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -7648,19 +7648,19 @@
         <v>4650</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1901</v>
+        <v>1945</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8716</v>
+        <v>9690</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02325199293869317</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009506675805001155</v>
+        <v>0.009726257711554375</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04358486942436875</v>
+        <v>0.04845582026916944</v>
       </c>
     </row>
     <row r="20">
@@ -7677,19 +7677,19 @@
         <v>2186</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6766</v>
+        <v>6276</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01866169234819912</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005152568066266418</v>
+        <v>0.005092988079411712</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05776901519883941</v>
+        <v>0.05358790496148225</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -7701,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3429</v>
+        <v>3420</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01266935743357329</v>
@@ -7710,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04138379441458778</v>
+        <v>0.04128199621593702</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -7719,19 +7719,19 @@
         <v>3235</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1229</v>
+        <v>1098</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6983</v>
+        <v>7663</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01617887386771621</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006143443791149211</v>
+        <v>0.005492128473649342</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03491746378435832</v>
+        <v>0.03831866082180969</v>
       </c>
     </row>
     <row r="21">
@@ -7823,19 +7823,19 @@
         <v>532615</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>511977</v>
+        <v>511776</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>552307</v>
+        <v>551695</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7537534261397213</v>
+        <v>0.7537534261397212</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7245465851612526</v>
+        <v>0.7242623839453515</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.781621289137034</v>
+        <v>0.7807554998099221</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>998</v>
@@ -7844,19 +7844,19 @@
         <v>525425</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>504504</v>
+        <v>503909</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>547542</v>
+        <v>547772</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5876209278381129</v>
+        <v>0.5876209278381128</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5642237573200386</v>
+        <v>0.5635577974513817</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6123564066764179</v>
+        <v>0.6126137053871753</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1745</v>
@@ -7865,19 +7865,19 @@
         <v>1058040</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1027220</v>
+        <v>1026565</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1085084</v>
+        <v>1086911</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6609555021134979</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6417025541904412</v>
+        <v>0.6412931314568036</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6778498583983616</v>
+        <v>0.6789911467083479</v>
       </c>
     </row>
     <row r="23">
@@ -7894,19 +7894,19 @@
         <v>61051</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>49541</v>
+        <v>49241</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>74659</v>
+        <v>73276</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.08639863714373935</v>
+        <v>0.08639863714373933</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07011054513156052</v>
+        <v>0.0696860067603647</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.105657181024657</v>
+        <v>0.1037003821037619</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>214</v>
@@ -7915,19 +7915,19 @@
         <v>114713</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>101503</v>
+        <v>101504</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>131120</v>
+        <v>130158</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1282919946052617</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1135178623346696</v>
+        <v>0.1135191750934652</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1466406404123622</v>
+        <v>0.1455649677753653</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>302</v>
@@ -7936,19 +7936,19 @@
         <v>175764</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>158054</v>
+        <v>158169</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>193725</v>
+        <v>196702</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1097993362403118</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09873614505503236</v>
+        <v>0.09880801202841218</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1210197304398454</v>
+        <v>0.1228794176935674</v>
       </c>
     </row>
     <row r="24">
@@ -7965,19 +7965,19 @@
         <v>35202</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26998</v>
+        <v>26894</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>45804</v>
+        <v>45382</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04981766499217173</v>
+        <v>0.04981766499217172</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0382073691701206</v>
+        <v>0.03806052853072882</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06482149948897935</v>
+        <v>0.06422364455656951</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>159</v>
@@ -7986,19 +7986,19 @@
         <v>85886</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>74229</v>
+        <v>73983</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>99338</v>
+        <v>99390</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.09605301839981922</v>
+        <v>0.09605301839981918</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08301605045439271</v>
+        <v>0.08274061198879279</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1110971014946889</v>
+        <v>0.1111546876702787</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>217</v>
@@ -8007,19 +8007,19 @@
         <v>121088</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>105221</v>
+        <v>105767</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>139481</v>
+        <v>138588</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.07564370659577847</v>
+        <v>0.07564370659577846</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06573160167949488</v>
+        <v>0.06607266894632369</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08713341407495669</v>
+        <v>0.08657584885716166</v>
       </c>
     </row>
     <row r="25">
@@ -8036,19 +8036,19 @@
         <v>52186</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41817</v>
+        <v>41740</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>64255</v>
+        <v>63905</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.07385286878026838</v>
+        <v>0.07385286878026837</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0591787226766892</v>
+        <v>0.05906959508594251</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09093368982741688</v>
+        <v>0.09043816390851571</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>181</v>
@@ -8057,19 +8057,19 @@
         <v>94646</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>82874</v>
+        <v>81417</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>110864</v>
+        <v>109755</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1058493661744463</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09268373370206849</v>
+        <v>0.09105459692928275</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1239873689228633</v>
+        <v>0.1227474837770423</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>260</v>
@@ -8078,19 +8078,19 @@
         <v>146832</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>130513</v>
+        <v>128462</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>165570</v>
+        <v>163775</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09172540163593926</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08153136803279812</v>
+        <v>0.0802502895403933</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1034312202849038</v>
+        <v>0.1023099785788608</v>
       </c>
     </row>
     <row r="26">
@@ -8107,19 +8107,19 @@
         <v>25564</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18337</v>
+        <v>18358</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>34453</v>
+        <v>34272</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03617740294409938</v>
+        <v>0.03617740294409937</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.025950487322351</v>
+        <v>0.02598075987102678</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04875772626906944</v>
+        <v>0.04850131966177017</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>139</v>
@@ -8128,19 +8128,19 @@
         <v>73486</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>62028</v>
+        <v>61452</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>86688</v>
+        <v>86375</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08218469298235984</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06937007009233602</v>
+        <v>0.0687264310813744</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09694942030043421</v>
+        <v>0.0965998160283002</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>180</v>
@@ -8149,19 +8149,19 @@
         <v>99050</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>84212</v>
+        <v>84989</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>113596</v>
+        <v>113591</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06187605341447269</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05260724912965839</v>
+        <v>0.05309241409337184</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07096318465646931</v>
+        <v>0.07095978500308409</v>
       </c>
     </row>
     <row r="27">
